--- a/doc/URL一覧.xlsx
+++ b/doc/URL一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/03.詳細設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\OneDrive - Mahala.Ms\htdocs\portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD605F9-2E2C-0A46-9B5B-8C01258F329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2CF1-2077-4BDD-8585-C104DBDE8C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="7326" yWindow="1278" windowWidth="11634" windowHeight="10524" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/member/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員ページ</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -105,113 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おすすめ商品、お知らせ</t>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員情報変更処理</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員パスワード変更処理</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退会ページ</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退会処理</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退会確認表示して、退会ボタンクリックで退会処理へ</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員情報変更確認ページ</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員パスワード変更確認ページ</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員ログインページ</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -219,169 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員パスワード変更ページ</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入履歴確認ページ</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員ログアウト</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト後、未ログイントップ？</t>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/login/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員ログイン処理</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員情報変更ページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規会員登録</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規会員登録確認</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規会員登録処理</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/login/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/order_history.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/logout/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/resistration/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/resistration/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/resistration/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/pasword/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/pasword/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/password/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/deactivate/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/deactivate/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL(/はindex.php)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,6 +550,236 @@
   </si>
   <si>
     <t>サーブレット名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録、ログインなどを表示する</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/login_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/entry.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/entry_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/entry_done.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/login/logout.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/post.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/user-info.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録ページ</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ(会員書込みページ兼)</t>
+    <rPh sb="7" eb="9">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録フォーム確認ページ</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録処理(SQL)ページ</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理ページ</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書込み処理(SQL)ページ</t>
+    <rPh sb="0" eb="2">
+      <t>カキコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認ページ</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録画面を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容を確認するページを表示</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SQL書込み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トップページへ転送する処理を行う</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>カキコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理を行う</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板に書き込まれた情報をSQLへ書き込む</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール情報を表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,7 +787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -846,6 +802,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1278,27 +1241,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="42.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.54296875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1307,188 +1270,166 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.95">
       <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.95">
       <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
   </sheetData>
@@ -1510,38 +1451,38 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="4" max="4" width="18.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.54296875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1550,217 +1491,217 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A8" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1770,7 +1711,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1780,7 +1721,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1790,7 +1731,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1800,7 +1741,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1810,7 +1751,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1820,7 +1761,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.95">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1830,7 +1771,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.95">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1854,43 +1795,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954F904-0EED-5F41-94F7-8DB53EF68516}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="3" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="4" max="4" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.86328125" style="3" customWidth="1"/>
+    <col min="9" max="14" width="11.54296875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1899,269 +1840,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A4" s="6" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A8" s="8" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A10" s="8" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.95">
+      <c r="A12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2171,7 +2112,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2181,7 +2122,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.95">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2191,7 +2132,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.95">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2201,7 +2142,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.95">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2211,7 +2152,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.95">
       <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2229,15 +2170,15 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/URL一覧.xlsx
+++ b/doc/URL一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\OneDrive - Mahala.Ms\htdocs\portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2CF1-2077-4BDD-8585-C104DBDE8C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A7BAC-42EF-47EB-8F0A-12565F7FA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7326" yWindow="1278" windowWidth="11634" windowHeight="10524" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -73,34 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員情報変更、パスワード変更、購入履歴確認、退会ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員ログインページ</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -553,10 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/src</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員登録、ログインなどを表示する</t>
     <rPh sb="0" eb="4">
       <t>カイイントウロク</t>
@@ -567,38 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/src/login/login.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/login/login_check.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/login/entry.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/login/entry_check.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/login/entry_done.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/login/logout.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/post.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/src/user-info.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員登録ページ</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -689,14 +625,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力内容を確認するページを表示</t>
+    <t>ログアウト処理を行う</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板に書き込まれた情報をSQLへ書き込む</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール情報を表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/user-info.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/login_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理を行う</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録確認ページを表示</t>
     <rPh sb="0" eb="4">
-      <t>ニュウリョクナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -709,9 +709,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
-        <charset val="1"/>
+        <charset val="128"/>
       </rPr>
       <t>→</t>
     </r>
@@ -726,60 +726,54 @@
       </rPr>
       <t>トップページへ転送する処理を行う</t>
     </r>
-    <rPh sb="3" eb="5">
-      <t>カキコ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト処理を行う</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板に書き込まれた情報をSQLへ書き込む</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール情報を表示する</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/entry.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/entry_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/entry_done.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/login/logout.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/post.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/public/urattei/index.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Model/Base.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Model/postItems.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Model/Users.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Util/Comon.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Util/SaftyUtil.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/Util/Validation.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,9 +800,9 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1243,25 +1237,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.54296875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.86328125" style="3"/>
+    <col min="2" max="2" width="42.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.5546875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1270,163 +1264,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.95">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.95">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.95">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.95">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.95">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.95">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.95">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.95">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.95">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1451,38 +1457,38 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.54296875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.86328125" style="3"/>
+    <col min="4" max="4" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.5546875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1491,217 +1497,217 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1711,7 +1717,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1721,7 +1727,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1731,7 +1737,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1741,7 +1747,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1751,7 +1757,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1761,7 +1767,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.95">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1771,7 +1777,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.95">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1800,38 +1806,38 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.40625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.86328125" style="3" customWidth="1"/>
-    <col min="9" max="14" width="11.54296875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.86328125" style="3"/>
+    <col min="4" max="4" width="20.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="3" customWidth="1"/>
+    <col min="9" max="14" width="11.5546875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1840,269 +1846,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.95">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2112,7 +2118,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2122,7 +2128,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2132,7 +2138,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.95">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2142,7 +2148,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.95">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2152,7 +2158,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.95">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>

--- a/doc/URL一覧.xlsx
+++ b/doc/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\OneDrive - Mahala.Ms\htdocs\portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A7BAC-42EF-47EB-8F0A-12565F7FA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E9527-E9B7-411F-88DF-834A23726547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="1950" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -774,6 +774,55 @@
   </si>
   <si>
     <t>/src/html/App/Util/Validation.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/html/App/config.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス・トランザクションのページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理のクラスを定義</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報取得ページ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サニタイズ、トークンに関するページ</t>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションのページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL関連の設定ページ</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,7 +1286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1383,7 +1432,9 @@
       <c r="B11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1391,7 +1442,9 @@
       <c r="B12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1399,7 +1452,9 @@
       <c r="B13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1407,7 +1462,9 @@
       <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1415,7 +1472,9 @@
       <c r="B15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1423,13 +1482,19 @@
       <c r="B16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2170,12 +2235,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -2185,6 +2244,12 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
